--- a/Grades Sheet Model/grades_sheet.xlsx
+++ b/Grades Sheet Model/grades_sheet.xlsx
@@ -453,215 +453,249 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1180236</t>
+          <t>897283060</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>180333</t>
+          <t>193333</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>111128</t>
+          <t>8489828</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>11165</t>
+          <t>117255</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1180274</t>
+          <t>0380023724</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>118156</t>
+          <t>000</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1180046011</t>
+          <t>0109061</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>11801036</t>
+          <t>188609065</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>11804560</t>
+          <t>100256</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" t="n">
-        <v>5</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>221022</t>
+          <t>0000722</t>
         </is>
       </c>
       <c r="B11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
         <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1180552</t>
+          <t>8852</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>11800207</t>
+          <t>01387607</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9</v>
-      </c>
-      <c r="C13" s="1" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="C13" t="n">
+        <v>5</v>
+      </c>
+      <c r="D13" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1805</t>
+          <t>38100059</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>112112</t>
+          <t>6812312</t>
         </is>
       </c>
       <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
         <v>2</v>
       </c>
-      <c r="C15" t="n">
-        <v>0</v>
+      <c r="D15" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1165</t>
+          <t>110155</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>17043</t>
+          <t>1700233</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>11172</t>
+          <t>1171772</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" s="1" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
